--- a/log/PSOELM_extracted_result/PSOELM_slp48_result/PSOELM_slp48_result.xlsx
+++ b/log/PSOELM_extracted_result/PSOELM_slp48_result/PSOELM_slp48_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\PSOELM_slp48_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fennia\Documents\MATLAB\thesis\log\PSOELM_extracted_result\PSOELM_slp48_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,9 +123,6 @@
     <t>1 3 4 8 10 12 14 15 16 17</t>
   </si>
   <si>
-    <t>best experiment</t>
-  </si>
-  <si>
     <t>1 2 4 9 10 12 13 18</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>3 4 5 6 8 9 10 11 13 14 17</t>
+  </si>
+  <si>
+    <t>BEST EXPERIMENT</t>
   </si>
 </sst>
 </file>
@@ -920,7 +920,7 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1315,7 +1315,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,7 +1415,7 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
         <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1535,7 +1535,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
         <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1635,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1655,7 +1655,7 @@
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1675,10 +1675,10 @@
         <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1698,7 +1698,7 @@
         <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1718,7 +1718,7 @@
         <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
         <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
         <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1833,7 +1833,7 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1873,10 +1873,10 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1896,7 +1896,7 @@
         <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1916,7 +1916,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1936,7 +1936,7 @@
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1976,7 +1976,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1996,7 +1996,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2076,7 +2076,7 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
         <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
         <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
         <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2316,7 +2316,7 @@
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2371,7 @@
         <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2391,7 +2391,7 @@
         <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2411,7 +2411,7 @@
         <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2431,7 +2431,7 @@
         <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2451,7 +2451,7 @@
         <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
         <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2491,7 +2491,7 @@
         <v>104</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2511,7 +2511,7 @@
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2531,7 +2531,7 @@
         <v>148</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2551,7 +2551,7 @@
         <v>134</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2571,7 +2571,7 @@
         <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2591,7 +2591,7 @@
         <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2611,7 +2611,7 @@
         <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2631,7 +2631,7 @@
         <v>153</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2651,7 +2651,7 @@
         <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2671,7 +2671,7 @@
         <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2691,7 +2691,7 @@
         <v>104</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2731,7 +2731,7 @@
         <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2751,7 +2751,7 @@
         <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2771,7 +2771,7 @@
         <v>162</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2791,10 +2791,10 @@
         <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2814,7 +2814,7 @@
         <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2834,7 +2834,7 @@
         <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2854,7 +2854,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
